--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F0555-2024-4F83-AB0C-8AF4BD4E358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396217B-7BAC-4810-A508-672580C8CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -1469,34 +1478,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>H01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>H02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>H03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>H04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1772,38 +1753,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>V01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1812,7 +1761,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>類別</t>
+      <t>公寓</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1825,7 +1774,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>公寓</t>
+      <t>大樓</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1838,7 +1787,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>大樓</t>
+      <t>公共設施</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1851,8 +1800,31 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>公共設施</t>
-    </r>
+      <t>私營單位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別資料表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別資料表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局資料表</t>
+  </si>
+  <si>
+    <t>容人數量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1864,80 +1836,464 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>私營單位</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>轄管分局</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分局地址</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分局電話</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>編號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里別資料表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管分局資料表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別資料表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>總表</t>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮中埔街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮和平街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮龍山路三段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣後龍鎮中華路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市米市街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市光復路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市博愛街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市大同路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市民族里和平路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市忠孝忠孝一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>116</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下樓層數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局代碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-581072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 747 4796</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局電話</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2009,7 +2365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2032,13 +2388,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2050,9 +2443,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,12 +2456,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2082,6 +2466,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2398,10 +2806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2417,11 +2825,11 @@
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2634,7 +3042,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="31.5">
@@ -2671,10 +3079,10 @@
       <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="14"/>
+      <c r="N7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
@@ -2710,10 +3118,10 @@
       <c r="K8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -2752,15 +3160,15 @@
       <c r="K9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="N9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
@@ -2796,15 +3204,15 @@
       <c r="K10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="N10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
@@ -2840,56 +3248,55 @@
       <c r="K11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="N12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="N12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="N13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="N13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="N15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="N15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
@@ -2925,889 +3332,945 @@
       <c r="K16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="8" t="s">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="N29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="N30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="N31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="N32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="13:19">
+      <c r="M34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="13:19">
+      <c r="M35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="13:19">
+      <c r="M36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="13:19">
+      <c r="M37" s="4">
+        <v>1</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>100</v>
+      </c>
+      <c r="R37" s="4">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="13:19">
+      <c r="M38" s="4">
+        <v>2</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>3142</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="13:19">
+      <c r="M39" s="4">
+        <v>3</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1072</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="13:19">
+      <c r="M40" s="4">
+        <v>4</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>32</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="13:19">
+      <c r="M41" s="4">
+        <v>5</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>106</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="13:19">
+      <c r="M42" s="4">
+        <v>6</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>26</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="13:19">
+      <c r="M43" s="4">
         <v>7</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="N43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>2038</v>
+      </c>
+      <c r="R43" s="4">
+        <v>2</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="13:19">
+      <c r="M44" s="4">
+        <v>8</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>128</v>
+      </c>
+      <c r="R44" s="4">
+        <v>2</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="13:19">
+      <c r="M45" s="4">
+        <v>9</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>353</v>
+      </c>
+      <c r="R45" s="4">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="13:19">
+      <c r="M46" s="4">
+        <v>10</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q46" s="4">
+        <v>501</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="13:19">
+      <c r="M47" s="4">
+        <v>11</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="Q47" s="4">
+        <v>194</v>
+      </c>
+      <c r="R47" s="4">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="13:19">
+      <c r="M48" s="4">
+        <v>12</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="Q48" s="4">
+        <v>78</v>
+      </c>
+      <c r="R48" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="5" t="s">
+      <c r="S48" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="8">
-        <v>2</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="N29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="N30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="N31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="N32" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="14:18">
-      <c r="N34" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-    </row>
-    <row r="35" spans="14:18">
-      <c r="N35" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="14:18">
-      <c r="N36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>1</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="14:18">
-      <c r="N37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>1</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="14:18">
-      <c r="N38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>1</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="14:18">
-      <c r="N39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>1</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="14:18">
-      <c r="N40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>1</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="14:18">
-      <c r="N41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>1</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="14:18">
-      <c r="N42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>2</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="14:18">
-      <c r="N43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>2</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="14:18">
-      <c r="N44" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>1</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="14:18">
-      <c r="N45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>1</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="14:18">
-      <c r="N46" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>1</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="14:18">
-      <c r="N47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>1</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N15:R15"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396217B-7BAC-4810-A508-672580C8CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2208FA4E-8B67-4495-92C5-61D071FCC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -2431,7 +2431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2465,7 +2465,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2475,21 +2487,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2808,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3079,10 +3076,10 @@
       <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="11"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
@@ -3160,10 +3157,10 @@
       <c r="K9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="13" t="s">
         <v>70</v>
       </c>
       <c r="P9" s="8"/>
@@ -3291,12 +3288,12 @@
       <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
@@ -3373,16 +3370,16 @@
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3596,12 +3593,12 @@
       <c r="K22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="7" t="s">
@@ -3678,16 +3675,16 @@
       <c r="K24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3936,14 +3933,14 @@
       </c>
     </row>
     <row r="34" spans="13:19">
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="13:19">
@@ -3964,25 +3961,25 @@
       </c>
     </row>
     <row r="36" spans="13:19">
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O36" s="16" t="s">
+      <c r="O36" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P36" s="16" t="s">
+      <c r="P36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q36" s="19" t="s">
+      <c r="Q36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="R36" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="S36" s="16" t="s">
+      <c r="S36" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3996,7 +3993,7 @@
       <c r="O37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="P37" s="11" t="s">
         <v>88</v>
       </c>
       <c r="Q37" s="4">
@@ -4019,7 +4016,7 @@
       <c r="O38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="11" t="s">
         <v>89</v>
       </c>
       <c r="Q38" s="4">
@@ -4042,7 +4039,7 @@
       <c r="O39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="P39" s="11" t="s">
         <v>90</v>
       </c>
       <c r="Q39" s="4">
@@ -4065,7 +4062,7 @@
       <c r="O40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P40" s="15" t="s">
+      <c r="P40" s="11" t="s">
         <v>91</v>
       </c>
       <c r="Q40" s="4">
@@ -4180,7 +4177,7 @@
       <c r="O45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="P45" s="11" t="s">
         <v>96</v>
       </c>
       <c r="Q45" s="4">
@@ -4203,7 +4200,7 @@
       <c r="O46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="P46" s="11" t="s">
         <v>97</v>
       </c>
       <c r="Q46" s="4">
@@ -4226,7 +4223,7 @@
       <c r="O47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P47" s="15" t="s">
+      <c r="P47" s="11" t="s">
         <v>98</v>
       </c>
       <c r="Q47" s="4">
@@ -4249,7 +4246,7 @@
       <c r="O48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P48" s="15" t="s">
+      <c r="P48" s="11" t="s">
         <v>99</v>
       </c>
       <c r="Q48" s="4">

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2208FA4E-8B67-4495-92C5-61D071FCC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F090B8-7212-4861-9F7C-795AAD2D08AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="124">
   <si>
     <r>
       <rPr>
@@ -1474,10 +1474,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>類別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1805,42 +1801,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>類別資料表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里別資料表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管分局資料表</t>
-  </si>
-  <si>
-    <t>容人數量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2241,38 +2201,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里別代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下樓層數</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管分局代碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室電話</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>037-581072</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2281,19 +2213,103 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>轄管分局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分局地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分局電話</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別編號</t>
+    <t>SERIAL_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACILITY ADDRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDERGROUND_FLOORS_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JURISDICTION_BRANCH_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE_OFFICE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE_PHONE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JURISDICTION_BRANCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRANCH_ADDRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRANCH_PHONE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMMARY_TABLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE_DATA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JURISDICTION_BRANCH_SHEET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORY_SHEET </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料型別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20 byte)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(5,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20 BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(20)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2301,7 +2317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2347,6 +2363,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -2431,7 +2454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2462,32 +2485,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2803,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2822,11 +2836,13 @@
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3039,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="31.5">
@@ -3076,10 +3092,11 @@
       <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="14"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
@@ -3115,13 +3132,11 @@
       <c r="K8" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="M8" s="7"/>
       <c r="N8" s="4" t="s">
         <v>69</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
@@ -3157,55 +3172,37 @@
       <c r="K9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>70</v>
+      <c r="M9" s="7"/>
+      <c r="N9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>56</v>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -3213,7 +3210,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>63</v>
@@ -3228,7 +3225,7 @@
         <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3245,162 +3242,165 @@
       <c r="K11" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="M11" s="7"/>
       <c r="N11" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="7"/>
       <c r="N12" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18">
+      <c r="M13" s="7"/>
       <c r="N13" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="N15" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="18"/>
+      <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
+      <c r="M16" s="7"/>
+      <c r="N16" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="M17" s="7"/>
+      <c r="N17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -3417,84 +3417,66 @@
       <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="M18" s="7"/>
       <c r="N18" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -3511,98 +3493,119 @@
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="M20" s="7"/>
       <c r="N20" s="4" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="O21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="P21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="Q21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
@@ -3617,10 +3620,10 @@
         <v>41</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>43</v>
@@ -3634,16 +3637,10 @@
       <c r="K23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>38</v>
@@ -3658,10 +3655,10 @@
         <v>41</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>43</v>
@@ -3675,178 +3672,150 @@
       <c r="K24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="M26" s="7"/>
       <c r="N26" s="4" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
@@ -3863,408 +3832,592 @@
       <c r="K28" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="M28" s="7"/>
       <c r="N28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="N29" s="4" t="s">
+    <row r="32" spans="1:17">
+      <c r="M32" s="7"/>
+      <c r="N32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="N30" s="4" t="s">
+    <row r="33" spans="12:19">
+      <c r="M33" s="7"/>
+      <c r="N33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="N31" s="4" t="s">
+    <row r="34" spans="12:19">
+      <c r="M34" s="7"/>
+      <c r="N34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="N32" s="4" t="s">
+    <row r="35" spans="12:19">
+      <c r="M35" s="7"/>
+      <c r="N35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="13:19">
-      <c r="M34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="13:19">
-      <c r="M35" s="4" t="s">
+    <row r="37" spans="12:19">
+      <c r="L37" s="6"/>
+      <c r="M37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="12:19">
+      <c r="L38" s="6"/>
+      <c r="M38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="12:19">
+      <c r="L39" s="6"/>
+      <c r="M39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="13:19">
-      <c r="M36" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N36" s="13" t="s">
+    </row>
+    <row r="40" spans="12:19">
+      <c r="L40" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="O36" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="13:19">
-      <c r="M37" s="4">
+      <c r="M40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="12:19">
+      <c r="L41" s="6"/>
+      <c r="M41" s="4">
         <v>1</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="4">
         <v>100</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>100</v>
-      </c>
-      <c r="R37" s="4">
-        <v>1</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="13:19">
-      <c r="M38" s="4">
-        <v>2</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>3142</v>
-      </c>
-      <c r="R38" s="4">
-        <v>1</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="13:19">
-      <c r="M39" s="4">
-        <v>3</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1072</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="13:19">
-      <c r="M40" s="4">
-        <v>4</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>32</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="13:19">
-      <c r="M41" s="4">
-        <v>5</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>106</v>
       </c>
       <c r="R41" s="4">
         <v>1</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="13:19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="12:19">
+      <c r="L42" s="6"/>
       <c r="M42" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>93</v>
+        <v>22</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="Q42" s="4">
-        <v>26</v>
+        <v>3142</v>
       </c>
       <c r="R42" s="4">
         <v>1</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="13:19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="12:19">
+      <c r="L43" s="6"/>
       <c r="M43" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>1072</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="12:19">
+      <c r="L44" s="6"/>
+      <c r="M44" s="4">
+        <v>4</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>32</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="12:19">
+      <c r="L45" s="6"/>
+      <c r="M45" s="4">
+        <v>5</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P43" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>2038</v>
-      </c>
-      <c r="R43" s="4">
-        <v>2</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="13:19">
-      <c r="M44" s="4">
-        <v>8</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>128</v>
-      </c>
-      <c r="R44" s="4">
-        <v>2</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="13:19">
-      <c r="M45" s="4">
-        <v>9</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>96</v>
+      <c r="P45" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="Q45" s="4">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="R45" s="4">
         <v>1</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="13:19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="12:19">
+      <c r="L46" s="6"/>
       <c r="M46" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="Q46" s="4">
-        <v>501</v>
+        <v>26</v>
       </c>
       <c r="R46" s="4">
         <v>1</v>
       </c>
       <c r="S46" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="12:19">
+      <c r="L47" s="6"/>
+      <c r="M47" s="4">
+        <v>7</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>2038</v>
+      </c>
+      <c r="R47" s="4">
+        <v>2</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="12:19">
+      <c r="L48" s="6"/>
+      <c r="M48" s="4">
+        <v>8</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>128</v>
+      </c>
+      <c r="R48" s="4">
+        <v>2</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="12:19">
+      <c r="L49" s="6"/>
+      <c r="M49" s="4">
+        <v>9</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>353</v>
+      </c>
+      <c r="R49" s="4">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="13:19">
-      <c r="M47" s="4">
+    <row r="50" spans="12:19">
+      <c r="L50" s="6"/>
+      <c r="M50" s="4">
+        <v>10</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>501</v>
+      </c>
+      <c r="R50" s="4">
+        <v>1</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="12:19">
+      <c r="L51" s="6"/>
+      <c r="M51" s="4">
         <v>11</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O47" s="4" t="s">
+      <c r="N51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P47" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q47" s="4">
+      <c r="P51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q51" s="4">
         <v>194</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R51" s="4">
         <v>1</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="13:19">
-      <c r="M48" s="4">
+    <row r="52" spans="12:19">
+      <c r="L52" s="6"/>
+      <c r="M52" s="4">
         <v>12</v>
       </c>
-      <c r="N48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O48" s="4" t="s">
+      <c r="N52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P48" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="P52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q52" s="4">
         <v>78</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R52" s="4">
         <v>1</v>
       </c>
-      <c r="S48" s="4" t="s">
+      <c r="S52" s="4" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N16:Q16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F090B8-7212-4861-9F7C-795AAD2D08AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B94D2D-994C-4B08-A0F2-0F5204BE3412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="126">
   <si>
     <r>
       <rPr>
@@ -2225,14 +2225,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FACILITY ADDRESS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAPACITY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UNDERGROUND_FLOORS_NUM</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2269,10 +2261,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SUMMARY_TABLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VILLAGE_DATA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2293,10 +2281,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar2(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>number(5,0)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2310,6 +2294,30 @@
   </si>
   <si>
     <t>NVARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACILITY_ADDRESS_SHEET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACILITY_ADDRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEOPLE_CAPACITY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(100)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2486,6 +2494,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2496,12 +2510,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2819,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2836,13 +2844,13 @@
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.75" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3093,10 +3101,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="10"/>
+      <c r="N7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
@@ -3177,7 +3185,7 @@
         <v>100</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -3195,14 +3203,14 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="M10" s="15" t="s">
-        <v>117</v>
+      <c r="M10" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -3334,12 +3342,12 @@
     </row>
     <row r="16" spans="1:18">
       <c r="M16" s="7"/>
-      <c r="N16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
+      <c r="N16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
@@ -3419,16 +3427,16 @@
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3443,20 +3451,20 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="M19" s="15" t="s">
-        <v>117</v>
+      <c r="M19" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3673,12 +3681,12 @@
         <v>46</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
+      <c r="N24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="7" t="s">
@@ -3761,13 +3769,13 @@
         <v>101</v>
       </c>
       <c r="O26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3782,20 +3790,20 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="M27" s="15" t="s">
-        <v>117</v>
+      <c r="M27" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4052,14 +4060,14 @@
     </row>
     <row r="37" spans="12:19">
       <c r="L37" s="6"/>
-      <c r="M37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="M37" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="12:19">
@@ -4067,12 +4075,18 @@
       <c r="M38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
+      <c r="S38" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="12:19">
       <c r="L39" s="6"/>
@@ -4086,42 +4100,42 @@
         <v>101</v>
       </c>
       <c r="P39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="40" spans="12:19">
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="N40" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="12:19">
@@ -4231,7 +4245,7 @@
       <c r="O45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="P45" s="10" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="4">
@@ -4255,7 +4269,7 @@
       <c r="O46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P46" s="14" t="s">
+      <c r="P46" s="10" t="s">
         <v>85</v>
       </c>
       <c r="Q46" s="4">
@@ -4279,7 +4293,7 @@
       <c r="O47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P47" s="14" t="s">
+      <c r="P47" s="10" t="s">
         <v>86</v>
       </c>
       <c r="Q47" s="4">
@@ -4303,7 +4317,7 @@
       <c r="O48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="P48" s="10" t="s">
         <v>87</v>
       </c>
       <c r="Q48" s="4">

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B94D2D-994C-4B08-A0F2-0F5204BE3412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA34CBC-2A9D-4D64-9E95-816AA4CFA637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -2827,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37:R37"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
